--- a/biology/Médecine/Spécialité_médicale/Spécialité_médicale.xlsx
+++ b/biology/Médecine/Spécialité_médicale/Spécialité_médicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sp%C3%A9cialit%C3%A9_m%C3%A9dicale</t>
+          <t>Spécialité_médicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une spécialité médicale est une branche de la pratique médicale. Après avoir terminé le tronc commun des études de médecine, les médecins continuent leur formation médicale dans une spécialité spécifique de la médecine, devenant ainsi un médecin spécialiste.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sp%C3%A9cialit%C3%A9_m%C3%A9dicale</t>
+          <t>Spécialité_médicale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans une certaine mesure, les médecins ont toujours été spécialisés. Selon Galien, la spécialisation était courante chez les médecins romains. Le système de spécialités médicales a progressivement évolué au cours du XIXe siècle. Les médecins sont des personnes qui soignent les humains et qui ont une particularité médicale.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sp%C3%A9cialit%C3%A9_m%C3%A9dicale</t>
+          <t>Spécialité_médicale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les spécialités médicales peuvent être classées selon plusieurs axes. Ceux-ci sont :
 la chirurgie ou la médecine interne ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sp%C3%A9cialit%C3%A9_m%C3%A9dicale</t>
+          <t>Spécialité_médicale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spécialités les plus communes
-Autres spécialités
-Allergologie
+          <t>Spécialités les plus communes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres spécialités</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Allergologie
 Anesthésiologie
 Radiologie
 Chirurgie plastique
@@ -607,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sp%C3%A9cialit%C3%A9_m%C3%A9dicale</t>
+          <t>Spécialité_médicale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,10 +651,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgique
-En Belgique, à la fin des 6 années (7 années avant 2012) d'études en Médecine, l'étudiant reçoit le titre de « Médecin ». Toutefois, ce dernier ne l'autorise pas à pratiquer dans le cadre de l'Institut national d'assurance maladie invalidité (INAMI). La formation doit donc obligatoirement être complétée par un master de spécialisation (en médecine générale ou dans une autre spécialité médicale) qui donne, quant à lui, accès à un diplôme permettant de pratiquer dans ce cadre. Celui-ci peut durer entre 3 ans et 6 ans.
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Belgique, à la fin des 6 années (7 années avant 2012) d'études en Médecine, l'étudiant reçoit le titre de « Médecin ». Toutefois, ce dernier ne l'autorise pas à pratiquer dans le cadre de l'Institut national d'assurance maladie invalidité (INAMI). La formation doit donc obligatoirement être complétée par un master de spécialisation (en médecine générale ou dans une autre spécialité médicale) qui donne, quant à lui, accès à un diplôme permettant de pratiquer dans ce cadre. Celui-ci peut durer entre 3 ans et 6 ans.
 Ces spécialisations sont soumises à des quotas fédéraux. Dans ce contexte, tout candidat doit suivre la procédure d'admission aux spécialités médicales et présenter une épreuve de sélection pour chaque spécialisation choisie.
-Voici la liste des spécialités médicales qui peuvent être suivies à l'UCLouvain (université catholique de Louvain)[1], à l'ULB (université libre de Bruxelles)[2] ou à l'ULiège (université de Liège)[3].
+Voici la liste des spécialités médicales qui peuvent être suivies à l'UCLouvain (université catholique de Louvain), à l'ULB (université libre de Bruxelles) ou à l'ULiège (université de Liège).
 Anatomo-pathologie (5 ans).
 Anesthésie-réanimation (5 ans).
 Biologie médicale (5 ans).
@@ -666,10 +695,48 @@
 Rhumatologie (6 ans).
 Stomatologie (5 ans).
 Urologie (6 ans).
-Canada
-Québec
-Au Québec, il y a plus de 9 000 médecins spécialistes. 
-Quatre universités québécoises offrent la formation en médecine soit l'Université Laval [1], à Québec, l'Université de Sherbrooke[2], en Estrie, l'Université de Montréal[3] et l'Université McGill [4], toutes deux à Montréal. Chacune des facultés de médecine est associée à un Centre hospitalier universitaire (CHU) où les futurs médecins effectuent leur résidence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Spécialité_médicale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sp%C3%A9cialit%C3%A9_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des spécialités par pays</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Québec, il y a plus de 9 000 médecins spécialistes. 
+Quatre universités québécoises offrent la formation en médecine soit l'Université Laval , à Québec, l'Université de Sherbrooke, en Estrie, l'Université de Montréal et l'Université McGill , toutes deux à Montréal. Chacune des facultés de médecine est associée à un Centre hospitalier universitaire (CHU) où les futurs médecins effectuent leur résidence.
 Il y a 54 spécialités médicales officielles au Québec et reconnues par le Collège des médecins du Québec (www.cmq.org) :
 Anatomo-pathologie (5 ans)
 Anesthésiologie (5 ans)
@@ -726,8 +793,43 @@
 Rhumatologie (5 ans)
 Urologie (5 ans)
 La Fédération des médecins spécialistes du Québec (www.fmsq.org) regroupe 35 associations de spécialités médicales puisque deux d'entre elles  (l’hématologie et l’oncologie médicale) ont fusionné leurs associations respectives pour n’en former qu’une seule.
-France
-Tous les étudiants en médecine passent à la fin du deuxième cycle les Épreuves classantes nationales pour choisir leurs spécialités. Devenir medecin nécessite l'obtention d'un DES (diplôme d'études spécialisées)[4]. Avant 2017 il existait aussi des DESC (diplôme d'études spécialisées complémentaires) qualifiant (pour les spécialités chirurgicales) ou non qualifiant. Ces DESC sont maintenant abandonnés et sont intégrés en option dans les différents DES ou dans les formations spécialisées transversales. A noter que certaines pratiques thérapeutiques, comme la Podologie ou la Kinésithérapie sont des spécialités paramédicales et ne font pas partie du cursus de médecine. Les DES sont classés en 3 catégories Médecine ; Chirurgie ; ainsi qu'un DES de Biologie médicale, 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Spécialité_médicale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sp%C3%A9cialit%C3%A9_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des spécialités par pays</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les étudiants en médecine passent à la fin du deuxième cycle les Épreuves classantes nationales pour choisir leurs spécialités. Devenir medecin nécessite l'obtention d'un DES (diplôme d'études spécialisées). Avant 2017 il existait aussi des DESC (diplôme d'études spécialisées complémentaires) qualifiant (pour les spécialités chirurgicales) ou non qualifiant. Ces DESC sont maintenant abandonnés et sont intégrés en option dans les différents DES ou dans les formations spécialisées transversales. A noter que certaines pratiques thérapeutiques, comme la Podologie ou la Kinésithérapie sont des spécialités paramédicales et ne font pas partie du cursus de médecine. Les DES sont classés en 3 catégories Médecine ; Chirurgie ; ainsi qu'un DES de Biologie médicale, 
 Liste des diplômes d'études spécialisées (DES) en médecine depuis 2017 :
 DES d’Allergologie ;
 DES d’Anatomie et cytologie pathologiques ;
@@ -773,8 +875,43 @@
 DES d’Ophtalmologie ;
 DES d’Oto-rhino-laryngologie et chirurgie cervico-faciale ;
 DES d’Urologie ;
-Tunisie
-Liste des spécialités médicales et chirurgicales officielles en Tunisie[5]:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Spécialité_médicale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sp%C3%A9cialit%C3%A9_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des spécialités par pays</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des spécialités médicales et chirurgicales officielles en Tunisie:
 Spécialités médicales
 Spécialités chirurgicales
 Biologie et disciplines fondamentales
